--- a/Excel Analyzer T.xlsx
+++ b/Excel Analyzer T.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A239F72C-71E9-4A48-AC3F-E5D13F66AC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD80271E-9D45-4B92-9F00-32134A1681EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,12 +54,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="156">
   <si>
     <t>PR. 2 Analyzer</t>
   </si>
@@ -886,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,12 +987,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1047,10 +1054,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{12BD7564-26C2-4303-8B1B-7658C3DC64A2}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Slicer Style 2" pivot="0" table="0" count="4" xr9:uid="{E6735C69-4965-4ECE-96D9-AEE3AF9B89D6}">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1117,7 +1124,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Analyzer.xlsx]Region!PivotTable1</c:name>
+    <c:name>[Excel Analyzer T.xlsx]Region!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1546,19 +1553,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>411290.62000000005</c:v>
+                  <c:v>168475.43000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370723.25</c:v>
+                  <c:v>227849.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330708.08999999985</c:v>
+                  <c:v>168274.52000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>369503.06</c:v>
+                  <c:v>212285.78999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>462741.67</c:v>
+                  <c:v>278458.60000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,7 +1598,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1599,6 +1605,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1665,7 +1672,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Analyzer.xlsx]Product!PivotTable2</c:name>
+    <c:name>[Excel Analyzer T.xlsx]Product!PivotTable2</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -1890,22 +1897,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Product!$D$3:$D$8</c:f>
+              <c:f>Product!$D$3:$D$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Books</c:v>
+                  <c:v>Electronics</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Clothing</c:v>
+                  <c:v>Furniture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Office Supplies</c:v>
                 </c:pt>
               </c:strCache>
@@ -1913,23 +1914,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$E$3:$E$8</c:f>
+              <c:f>Product!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>487565.97</c:v>
+                  <c:v>407748.73999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402057.01999999996</c:v>
+                  <c:v>356940.18999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>407748.73999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>356940.19</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>290654.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -2156,7 +2151,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2164,6 +2158,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2228,7 +2223,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Analyzer.xlsx]Date!PivotTable3</c:name>
+    <c:name>[Excel Analyzer T.xlsx]Date!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2430,43 +2425,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>180203.86999999997</c:v>
+                  <c:v>77084.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198658.33000000002</c:v>
+                  <c:v>144490.81000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202365.12</c:v>
+                  <c:v>107232.65999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118108.5</c:v>
+                  <c:v>96524.819999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99467.579999999987</c:v>
+                  <c:v>59284.37999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213064.05999999997</c:v>
+                  <c:v>131251.10999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144567.88999999998</c:v>
+                  <c:v>51502.499999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163911.10000000003</c:v>
+                  <c:v>112807.54999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132725.48000000001</c:v>
+                  <c:v>88777.98000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150602.97</c:v>
+                  <c:v>52040.520000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123216.75</c:v>
+                  <c:v>62672.51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>196742.63999999998</c:v>
+                  <c:v>60179.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21332.400000000001</c:v>
+                  <c:v>11494.880000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,7 +2734,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2747,6 +2741,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2821,7 +2816,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Analyzer.xlsx]Region!PivotTable1</c:name>
+    <c:name>[Excel Analyzer T.xlsx]Region!PivotTable1</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -3864,19 +3859,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>411290.62000000005</c:v>
+                  <c:v>168475.43000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370723.25</c:v>
+                  <c:v>227849.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330708.08999999985</c:v>
+                  <c:v>168274.52000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>369503.06</c:v>
+                  <c:v>212285.78999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>462741.67</c:v>
+                  <c:v>278458.60000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,7 +3937,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3950,6 +3944,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4016,7 +4011,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Analyzer.xlsx]Product!PivotTable2</c:name>
+    <c:name>[Excel Analyzer T.xlsx]Product!PivotTable2</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -4265,22 +4260,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Product!$D$3:$D$8</c:f>
+              <c:f>Product!$D$3:$D$6</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Books</c:v>
+                  <c:v>Electronics</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Clothing</c:v>
+                  <c:v>Furniture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Electronics</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Office Supplies</c:v>
                 </c:pt>
               </c:strCache>
@@ -4288,23 +4277,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$E$3:$E$8</c:f>
+              <c:f>Product!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>487565.97</c:v>
+                  <c:v>407748.73999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402057.01999999996</c:v>
+                  <c:v>356940.18999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>407748.73999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>356940.19</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>290654.77</c:v>
                 </c:pt>
               </c:numCache>
@@ -4525,7 +4508,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4533,6 +4515,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4601,7 +4584,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Analyzer.xlsx]Date!PivotTable3</c:name>
+    <c:name>[Excel Analyzer T.xlsx]Date!PivotTable3</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -4943,43 +4926,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>180203.86999999997</c:v>
+                  <c:v>77084.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198658.33000000002</c:v>
+                  <c:v>144490.81000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202365.12</c:v>
+                  <c:v>107232.65999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118108.5</c:v>
+                  <c:v>96524.819999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99467.579999999987</c:v>
+                  <c:v>59284.37999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213064.05999999997</c:v>
+                  <c:v>131251.10999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144567.88999999998</c:v>
+                  <c:v>51502.499999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163911.10000000003</c:v>
+                  <c:v>112807.54999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132725.48000000001</c:v>
+                  <c:v>88777.98000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150602.97</c:v>
+                  <c:v>52040.520000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123216.75</c:v>
+                  <c:v>62672.51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>196742.63999999998</c:v>
+                  <c:v>60179.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21332.400000000001</c:v>
+                  <c:v>11494.880000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,7 +5223,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5248,6 +5230,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8627,20 +8610,7 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8857,32 +8827,19 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9752,7 +9709,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>₹ 19,44,967</a:t>
+            <a:t>₹ 1,055,344</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="2000">
             <a:solidFill>
@@ -13919,8 +13876,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -14311,7 +14268,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{279F61A1-2BB4-4773-BFEA-E7424544744D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
-  <location ref="D2:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D2:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14327,8 +14284,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -14539,13 +14496,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x v="2"/>
     </i>
@@ -14615,8 +14566,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -14886,7 +14837,7 @@
     <dataField name="Sum of Total Purchase" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14971,8 +14922,8 @@
   <data>
     <tabular pivotCacheId="2120861897">
       <items count="5">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
@@ -14990,32 +14941,22 @@
   <data>
     <tabular pivotCacheId="2120861897">
       <items count="148">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
         <i x="6" s="1"/>
-        <i x="7" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
         <i x="10" s="1"/>
-        <i x="11" s="1"/>
-        <i x="12" s="1"/>
         <i x="13" s="1"/>
-        <i x="14" s="1"/>
         <i x="15" s="1"/>
         <i x="16" s="1"/>
         <i x="17" s="1"/>
-        <i x="18" s="1"/>
         <i x="19" s="1"/>
         <i x="20" s="1"/>
         <i x="21" s="1"/>
         <i x="22" s="1"/>
         <i x="23" s="1"/>
-        <i x="24" s="1"/>
-        <i x="25" s="1"/>
         <i x="26" s="1"/>
         <i x="27" s="1"/>
         <i x="28" s="1"/>
@@ -15023,14 +14964,9 @@
         <i x="30" s="1"/>
         <i x="31" s="1"/>
         <i x="32" s="1"/>
-        <i x="33" s="1"/>
         <i x="34" s="1"/>
-        <i x="35" s="1"/>
         <i x="36" s="1"/>
-        <i x="37" s="1"/>
         <i x="38" s="1"/>
-        <i x="39" s="1"/>
-        <i x="40" s="1"/>
         <i x="41" s="1"/>
         <i x="42" s="1"/>
         <i x="43" s="1"/>
@@ -15046,7 +14982,6 @@
         <i x="53" s="1"/>
         <i x="54" s="1"/>
         <i x="55" s="1"/>
-        <i x="56" s="1"/>
         <i x="57" s="1"/>
         <i x="58" s="1"/>
         <i x="59" s="1"/>
@@ -15056,27 +14991,17 @@
         <i x="63" s="1"/>
         <i x="64" s="1"/>
         <i x="65" s="1"/>
-        <i x="66" s="1"/>
-        <i x="67" s="1"/>
         <i x="68" s="1"/>
         <i x="69" s="1"/>
-        <i x="70" s="1"/>
         <i x="71" s="1"/>
         <i x="72" s="1"/>
         <i x="73" s="1"/>
-        <i x="74" s="1"/>
-        <i x="75" s="1"/>
-        <i x="76" s="1"/>
-        <i x="77" s="1"/>
         <i x="78" s="1"/>
         <i x="79" s="1"/>
-        <i x="80" s="1"/>
         <i x="81" s="1"/>
-        <i x="82" s="1"/>
         <i x="83" s="1"/>
         <i x="84" s="1"/>
         <i x="85" s="1"/>
-        <i x="86" s="1"/>
         <i x="87" s="1"/>
         <i x="88" s="1"/>
         <i x="89" s="1"/>
@@ -15089,55 +15014,81 @@
         <i x="96" s="1"/>
         <i x="97" s="1"/>
         <i x="98" s="1"/>
-        <i x="99" s="1"/>
         <i x="100" s="1"/>
         <i x="101" s="1"/>
-        <i x="102" s="1"/>
-        <i x="103" s="1"/>
         <i x="104" s="1"/>
-        <i x="105" s="1"/>
         <i x="106" s="1"/>
         <i x="107" s="1"/>
-        <i x="108" s="1"/>
         <i x="109" s="1"/>
         <i x="110" s="1"/>
-        <i x="111" s="1"/>
         <i x="112" s="1"/>
-        <i x="113" s="1"/>
-        <i x="114" s="1"/>
-        <i x="115" s="1"/>
-        <i x="116" s="1"/>
-        <i x="117" s="1"/>
         <i x="118" s="1"/>
-        <i x="119" s="1"/>
         <i x="120" s="1"/>
         <i x="121" s="1"/>
         <i x="122" s="1"/>
-        <i x="123" s="1"/>
         <i x="124" s="1"/>
-        <i x="125" s="1"/>
         <i x="126" s="1"/>
-        <i x="127" s="1"/>
-        <i x="128" s="1"/>
-        <i x="129" s="1"/>
-        <i x="130" s="1"/>
-        <i x="131" s="1"/>
-        <i x="132" s="1"/>
-        <i x="133" s="1"/>
         <i x="134" s="1"/>
-        <i x="135" s="1"/>
         <i x="136" s="1"/>
-        <i x="137" s="1"/>
-        <i x="138" s="1"/>
-        <i x="139" s="1"/>
         <i x="140" s="1"/>
         <i x="141" s="1"/>
-        <i x="142" s="1"/>
         <i x="143" s="1"/>
-        <i x="144" s="1"/>
         <i x="145" s="1"/>
         <i x="146" s="1"/>
-        <i x="147" s="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="24" s="1" nd="1"/>
+        <i x="25" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="39" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="99" s="1" nd="1"/>
+        <i x="102" s="1" nd="1"/>
+        <i x="103" s="1" nd="1"/>
+        <i x="105" s="1" nd="1"/>
+        <i x="108" s="1" nd="1"/>
+        <i x="111" s="1" nd="1"/>
+        <i x="113" s="1" nd="1"/>
+        <i x="114" s="1" nd="1"/>
+        <i x="115" s="1" nd="1"/>
+        <i x="116" s="1" nd="1"/>
+        <i x="117" s="1" nd="1"/>
+        <i x="119" s="1" nd="1"/>
+        <i x="123" s="1" nd="1"/>
+        <i x="125" s="1" nd="1"/>
+        <i x="127" s="1" nd="1"/>
+        <i x="128" s="1" nd="1"/>
+        <i x="129" s="1" nd="1"/>
+        <i x="130" s="1" nd="1"/>
+        <i x="131" s="1" nd="1"/>
+        <i x="132" s="1" nd="1"/>
+        <i x="133" s="1" nd="1"/>
+        <i x="135" s="1" nd="1"/>
+        <i x="137" s="1" nd="1"/>
+        <i x="138" s="1" nd="1"/>
+        <i x="139" s="1" nd="1"/>
+        <i x="142" s="1" nd="1"/>
+        <i x="144" s="1" nd="1"/>
+        <i x="147" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -41440,7 +41391,7 @@
       </c>
       <c r="L2" s="26">
         <f t="shared" ref="L2:L33" ca="1" si="3">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M2"/>
       <c r="N2" s="23" t="s">
@@ -41500,7 +41451,7 @@
       </c>
       <c r="L3" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M3"/>
       <c r="R3" s="14"/>
@@ -41545,7 +41496,7 @@
       </c>
       <c r="L4" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="36" t="s">
@@ -41598,7 +41549,7 @@
       </c>
       <c r="L5" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="15"/>
@@ -41655,7 +41606,7 @@
       </c>
       <c r="L6" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M6"/>
       <c r="N6" s="22">
@@ -41715,7 +41666,7 @@
       </c>
       <c r="L7" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M7"/>
       <c r="N7" s="22">
@@ -41775,7 +41726,7 @@
       </c>
       <c r="L8" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M8"/>
       <c r="N8" s="22">
@@ -41835,7 +41786,7 @@
       </c>
       <c r="L9" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M9"/>
       <c r="N9" s="22">
@@ -41895,7 +41846,7 @@
       </c>
       <c r="L10" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M10"/>
       <c r="N10" s="22">
@@ -41955,7 +41906,7 @@
       </c>
       <c r="L11" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M11"/>
       <c r="N11" s="22">
@@ -42009,7 +41960,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M12"/>
       <c r="N12" s="22">
@@ -42063,7 +42014,7 @@
       </c>
       <c r="L13" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M13"/>
       <c r="N13" s="22">
@@ -42117,7 +42068,7 @@
       </c>
       <c r="L14" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M14"/>
       <c r="N14" s="22">
@@ -42171,7 +42122,7 @@
       </c>
       <c r="L15" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="22">
@@ -42225,7 +42176,7 @@
       </c>
       <c r="L16" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M16"/>
     </row>
@@ -42268,7 +42219,7 @@
       </c>
       <c r="L17" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M17"/>
       <c r="N17" s="36" t="s">
@@ -42316,7 +42267,7 @@
       </c>
       <c r="L18" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M18"/>
       <c r="N18" s="4" t="s">
@@ -42368,7 +42319,7 @@
       </c>
       <c r="L19" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M19"/>
       <c r="N19" s="5" t="s">
@@ -42420,7 +42371,7 @@
       </c>
       <c r="L20" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M20"/>
       <c r="N20" s="5" t="s">
@@ -42473,7 +42424,7 @@
       </c>
       <c r="L21" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M21"/>
       <c r="N21" s="5" t="s">
@@ -42526,7 +42477,7 @@
       </c>
       <c r="L22" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M22"/>
       <c r="N22" s="5" t="s">
@@ -42579,7 +42530,7 @@
       </c>
       <c r="L23" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M23"/>
       <c r="N23" s="5" t="s">
@@ -42632,7 +42583,7 @@
       </c>
       <c r="L24" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M24"/>
       <c r="N24" s="5" t="s">
@@ -42685,7 +42636,7 @@
       </c>
       <c r="L25" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M25"/>
       <c r="N25" s="5" t="s">
@@ -42738,7 +42689,7 @@
       </c>
       <c r="L26" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M26"/>
       <c r="N26" s="5" t="s">
@@ -42791,7 +42742,7 @@
       </c>
       <c r="L27" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M27"/>
       <c r="N27" s="5" t="s">
@@ -42844,7 +42795,7 @@
       </c>
       <c r="L28" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M28"/>
       <c r="N28" s="5" t="s">
@@ -42897,7 +42848,7 @@
       </c>
       <c r="L29" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M29"/>
       <c r="N29" s="5" t="s">
@@ -42950,7 +42901,7 @@
       </c>
       <c r="L30" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M30"/>
       <c r="N30" s="5" t="s">
@@ -43003,7 +42954,7 @@
       </c>
       <c r="L31" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M31"/>
       <c r="N31" s="5" t="s">
@@ -43056,7 +43007,7 @@
       </c>
       <c r="L32" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M32"/>
     </row>
@@ -43099,7 +43050,7 @@
       </c>
       <c r="L33" s="26">
         <f t="shared" ca="1" si="3"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M33"/>
     </row>
@@ -43142,7 +43093,7 @@
       </c>
       <c r="L34" s="26">
         <f t="shared" ref="L34:L65" ca="1" si="10">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M34"/>
     </row>
@@ -43185,7 +43136,7 @@
       </c>
       <c r="L35" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M35"/>
     </row>
@@ -43228,7 +43179,7 @@
       </c>
       <c r="L36" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M36"/>
     </row>
@@ -43271,7 +43222,7 @@
       </c>
       <c r="L37" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M37"/>
     </row>
@@ -43314,7 +43265,7 @@
       </c>
       <c r="L38" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M38"/>
     </row>
@@ -43357,7 +43308,7 @@
       </c>
       <c r="L39" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M39"/>
     </row>
@@ -43400,7 +43351,7 @@
       </c>
       <c r="L40" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M40"/>
     </row>
@@ -43443,7 +43394,7 @@
       </c>
       <c r="L41" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M41"/>
     </row>
@@ -43486,7 +43437,7 @@
       </c>
       <c r="L42" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M42"/>
     </row>
@@ -43529,7 +43480,7 @@
       </c>
       <c r="L43" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M43"/>
     </row>
@@ -43572,7 +43523,7 @@
       </c>
       <c r="L44" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M44"/>
     </row>
@@ -43615,7 +43566,7 @@
       </c>
       <c r="L45" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M45"/>
     </row>
@@ -43658,7 +43609,7 @@
       </c>
       <c r="L46" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M46"/>
     </row>
@@ -43701,7 +43652,7 @@
       </c>
       <c r="L47" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M47"/>
     </row>
@@ -43744,7 +43695,7 @@
       </c>
       <c r="L48" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M48"/>
     </row>
@@ -43787,7 +43738,7 @@
       </c>
       <c r="L49" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M49"/>
     </row>
@@ -43830,7 +43781,7 @@
       </c>
       <c r="L50" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M50"/>
     </row>
@@ -43873,7 +43824,7 @@
       </c>
       <c r="L51" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M51"/>
     </row>
@@ -43916,7 +43867,7 @@
       </c>
       <c r="L52" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M52"/>
     </row>
@@ -43959,7 +43910,7 @@
       </c>
       <c r="L53" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M53"/>
     </row>
@@ -44002,7 +43953,7 @@
       </c>
       <c r="L54" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M54"/>
     </row>
@@ -44045,7 +43996,7 @@
       </c>
       <c r="L55" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M55"/>
     </row>
@@ -44088,7 +44039,7 @@
       </c>
       <c r="L56" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M56"/>
     </row>
@@ -44131,7 +44082,7 @@
       </c>
       <c r="L57" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M57"/>
     </row>
@@ -44174,7 +44125,7 @@
       </c>
       <c r="L58" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M58"/>
     </row>
@@ -44217,7 +44168,7 @@
       </c>
       <c r="L59" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M59"/>
     </row>
@@ -44260,7 +44211,7 @@
       </c>
       <c r="L60" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M60"/>
     </row>
@@ -44303,7 +44254,7 @@
       </c>
       <c r="L61" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M61"/>
     </row>
@@ -44346,7 +44297,7 @@
       </c>
       <c r="L62" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M62"/>
     </row>
@@ -44389,7 +44340,7 @@
       </c>
       <c r="L63" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M63"/>
     </row>
@@ -44432,7 +44383,7 @@
       </c>
       <c r="L64" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M64"/>
     </row>
@@ -44475,7 +44426,7 @@
       </c>
       <c r="L65" s="26">
         <f t="shared" ca="1" si="10"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M65"/>
     </row>
@@ -44518,7 +44469,7 @@
       </c>
       <c r="L66" s="26">
         <f t="shared" ref="L66:L97" ca="1" si="14">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M66"/>
     </row>
@@ -44561,7 +44512,7 @@
       </c>
       <c r="L67" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M67"/>
     </row>
@@ -44604,7 +44555,7 @@
       </c>
       <c r="L68" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M68"/>
     </row>
@@ -44647,7 +44598,7 @@
       </c>
       <c r="L69" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M69"/>
     </row>
@@ -44690,7 +44641,7 @@
       </c>
       <c r="L70" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M70"/>
     </row>
@@ -44733,7 +44684,7 @@
       </c>
       <c r="L71" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M71"/>
     </row>
@@ -44776,7 +44727,7 @@
       </c>
       <c r="L72" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M72"/>
     </row>
@@ -44819,7 +44770,7 @@
       </c>
       <c r="L73" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M73"/>
     </row>
@@ -44862,7 +44813,7 @@
       </c>
       <c r="L74" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M74"/>
     </row>
@@ -44905,7 +44856,7 @@
       </c>
       <c r="L75" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M75"/>
     </row>
@@ -44948,7 +44899,7 @@
       </c>
       <c r="L76" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M76"/>
     </row>
@@ -44991,7 +44942,7 @@
       </c>
       <c r="L77" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M77"/>
     </row>
@@ -45034,7 +44985,7 @@
       </c>
       <c r="L78" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M78"/>
     </row>
@@ -45077,7 +45028,7 @@
       </c>
       <c r="L79" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M79"/>
     </row>
@@ -45120,7 +45071,7 @@
       </c>
       <c r="L80" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M80"/>
     </row>
@@ -45163,7 +45114,7 @@
       </c>
       <c r="L81" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M81"/>
     </row>
@@ -45206,7 +45157,7 @@
       </c>
       <c r="L82" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M82"/>
     </row>
@@ -45249,7 +45200,7 @@
       </c>
       <c r="L83" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M83"/>
     </row>
@@ -45292,7 +45243,7 @@
       </c>
       <c r="L84" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M84"/>
     </row>
@@ -45335,7 +45286,7 @@
       </c>
       <c r="L85" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M85"/>
     </row>
@@ -45378,7 +45329,7 @@
       </c>
       <c r="L86" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M86"/>
     </row>
@@ -45421,7 +45372,7 @@
       </c>
       <c r="L87" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M87"/>
     </row>
@@ -45464,7 +45415,7 @@
       </c>
       <c r="L88" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M88"/>
     </row>
@@ -45507,7 +45458,7 @@
       </c>
       <c r="L89" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M89"/>
     </row>
@@ -45550,7 +45501,7 @@
       </c>
       <c r="L90" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M90"/>
     </row>
@@ -45593,7 +45544,7 @@
       </c>
       <c r="L91" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M91"/>
     </row>
@@ -45636,7 +45587,7 @@
       </c>
       <c r="L92" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M92"/>
     </row>
@@ -45679,7 +45630,7 @@
       </c>
       <c r="L93" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M93"/>
     </row>
@@ -45722,7 +45673,7 @@
       </c>
       <c r="L94" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M94"/>
     </row>
@@ -45765,7 +45716,7 @@
       </c>
       <c r="L95" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M95"/>
     </row>
@@ -45808,7 +45759,7 @@
       </c>
       <c r="L96" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M96"/>
     </row>
@@ -45851,7 +45802,7 @@
       </c>
       <c r="L97" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M97"/>
     </row>
@@ -45894,7 +45845,7 @@
       </c>
       <c r="L98" s="26">
         <f t="shared" ref="L98:L129" ca="1" si="18">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M98"/>
     </row>
@@ -45937,7 +45888,7 @@
       </c>
       <c r="L99" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M99"/>
     </row>
@@ -45980,7 +45931,7 @@
       </c>
       <c r="L100" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M100"/>
     </row>
@@ -46023,7 +45974,7 @@
       </c>
       <c r="L101" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M101"/>
     </row>
@@ -46066,7 +46017,7 @@
       </c>
       <c r="L102" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M102"/>
     </row>
@@ -46109,7 +46060,7 @@
       </c>
       <c r="L103" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M103"/>
     </row>
@@ -46152,7 +46103,7 @@
       </c>
       <c r="L104" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M104"/>
     </row>
@@ -46195,7 +46146,7 @@
       </c>
       <c r="L105" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M105"/>
     </row>
@@ -46238,7 +46189,7 @@
       </c>
       <c r="L106" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M106"/>
     </row>
@@ -46281,7 +46232,7 @@
       </c>
       <c r="L107" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M107"/>
     </row>
@@ -46324,7 +46275,7 @@
       </c>
       <c r="L108" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M108"/>
     </row>
@@ -46367,7 +46318,7 @@
       </c>
       <c r="L109" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M109"/>
     </row>
@@ -46410,7 +46361,7 @@
       </c>
       <c r="L110" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M110"/>
     </row>
@@ -46453,7 +46404,7 @@
       </c>
       <c r="L111" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M111"/>
     </row>
@@ -46496,7 +46447,7 @@
       </c>
       <c r="L112" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M112"/>
     </row>
@@ -46539,7 +46490,7 @@
       </c>
       <c r="L113" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M113"/>
     </row>
@@ -46582,7 +46533,7 @@
       </c>
       <c r="L114" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M114"/>
     </row>
@@ -46625,7 +46576,7 @@
       </c>
       <c r="L115" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M115"/>
     </row>
@@ -46668,7 +46619,7 @@
       </c>
       <c r="L116" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M116"/>
     </row>
@@ -46711,7 +46662,7 @@
       </c>
       <c r="L117" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M117"/>
     </row>
@@ -46754,7 +46705,7 @@
       </c>
       <c r="L118" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M118"/>
     </row>
@@ -46797,7 +46748,7 @@
       </c>
       <c r="L119" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M119"/>
     </row>
@@ -46840,7 +46791,7 @@
       </c>
       <c r="L120" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M120"/>
     </row>
@@ -46883,7 +46834,7 @@
       </c>
       <c r="L121" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M121"/>
     </row>
@@ -46926,7 +46877,7 @@
       </c>
       <c r="L122" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M122"/>
     </row>
@@ -46969,7 +46920,7 @@
       </c>
       <c r="L123" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M123"/>
     </row>
@@ -47012,7 +46963,7 @@
       </c>
       <c r="L124" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M124"/>
     </row>
@@ -47055,7 +47006,7 @@
       </c>
       <c r="L125" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M125"/>
     </row>
@@ -47098,7 +47049,7 @@
       </c>
       <c r="L126" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M126"/>
     </row>
@@ -47141,7 +47092,7 @@
       </c>
       <c r="L127" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M127"/>
     </row>
@@ -47184,7 +47135,7 @@
       </c>
       <c r="L128" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M128"/>
     </row>
@@ -47227,7 +47178,7 @@
       </c>
       <c r="L129" s="26">
         <f t="shared" ca="1" si="18"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M129"/>
     </row>
@@ -47270,7 +47221,7 @@
       </c>
       <c r="L130" s="26">
         <f t="shared" ref="L130:L161" ca="1" si="22">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M130"/>
     </row>
@@ -47313,7 +47264,7 @@
       </c>
       <c r="L131" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M131"/>
     </row>
@@ -47356,7 +47307,7 @@
       </c>
       <c r="L132" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M132"/>
     </row>
@@ -47399,7 +47350,7 @@
       </c>
       <c r="L133" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M133"/>
     </row>
@@ -47442,7 +47393,7 @@
       </c>
       <c r="L134" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M134"/>
     </row>
@@ -47485,7 +47436,7 @@
       </c>
       <c r="L135" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M135"/>
     </row>
@@ -47528,7 +47479,7 @@
       </c>
       <c r="L136" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M136"/>
     </row>
@@ -47571,7 +47522,7 @@
       </c>
       <c r="L137" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M137"/>
     </row>
@@ -47614,7 +47565,7 @@
       </c>
       <c r="L138" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M138"/>
     </row>
@@ -47657,7 +47608,7 @@
       </c>
       <c r="L139" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M139"/>
     </row>
@@ -47700,7 +47651,7 @@
       </c>
       <c r="L140" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M140"/>
     </row>
@@ -47743,7 +47694,7 @@
       </c>
       <c r="L141" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M141"/>
     </row>
@@ -47786,7 +47737,7 @@
       </c>
       <c r="L142" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M142"/>
     </row>
@@ -47829,7 +47780,7 @@
       </c>
       <c r="L143" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M143"/>
     </row>
@@ -47872,7 +47823,7 @@
       </c>
       <c r="L144" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M144"/>
     </row>
@@ -47915,7 +47866,7 @@
       </c>
       <c r="L145" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M145"/>
     </row>
@@ -47958,7 +47909,7 @@
       </c>
       <c r="L146" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M146"/>
     </row>
@@ -48001,7 +47952,7 @@
       </c>
       <c r="L147" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M147"/>
     </row>
@@ -48044,7 +47995,7 @@
       </c>
       <c r="L148" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M148"/>
     </row>
@@ -48087,7 +48038,7 @@
       </c>
       <c r="L149" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M149"/>
     </row>
@@ -48130,7 +48081,7 @@
       </c>
       <c r="L150" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M150"/>
     </row>
@@ -48173,7 +48124,7 @@
       </c>
       <c r="L151" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M151"/>
     </row>
@@ -48216,7 +48167,7 @@
       </c>
       <c r="L152" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M152"/>
     </row>
@@ -48259,7 +48210,7 @@
       </c>
       <c r="L153" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M153"/>
     </row>
@@ -48302,7 +48253,7 @@
       </c>
       <c r="L154" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M154"/>
     </row>
@@ -48345,7 +48296,7 @@
       </c>
       <c r="L155" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M155"/>
     </row>
@@ -48388,7 +48339,7 @@
       </c>
       <c r="L156" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M156"/>
     </row>
@@ -48431,7 +48382,7 @@
       </c>
       <c r="L157" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M157"/>
     </row>
@@ -48474,7 +48425,7 @@
       </c>
       <c r="L158" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M158"/>
     </row>
@@ -48517,7 +48468,7 @@
       </c>
       <c r="L159" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M159"/>
     </row>
@@ -48560,7 +48511,7 @@
       </c>
       <c r="L160" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M160"/>
     </row>
@@ -48603,7 +48554,7 @@
       </c>
       <c r="L161" s="26">
         <f t="shared" ca="1" si="22"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M161"/>
     </row>
@@ -48646,7 +48597,7 @@
       </c>
       <c r="L162" s="26">
         <f t="shared" ref="L162:L193" ca="1" si="26">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M162"/>
     </row>
@@ -48689,7 +48640,7 @@
       </c>
       <c r="L163" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M163"/>
     </row>
@@ -48732,7 +48683,7 @@
       </c>
       <c r="L164" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M164"/>
     </row>
@@ -48775,7 +48726,7 @@
       </c>
       <c r="L165" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M165"/>
     </row>
@@ -48818,7 +48769,7 @@
       </c>
       <c r="L166" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M166"/>
     </row>
@@ -48861,7 +48812,7 @@
       </c>
       <c r="L167" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M167"/>
     </row>
@@ -48904,7 +48855,7 @@
       </c>
       <c r="L168" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M168"/>
     </row>
@@ -48947,7 +48898,7 @@
       </c>
       <c r="L169" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M169"/>
     </row>
@@ -48990,7 +48941,7 @@
       </c>
       <c r="L170" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M170"/>
     </row>
@@ -49033,7 +48984,7 @@
       </c>
       <c r="L171" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M171"/>
     </row>
@@ -49076,7 +49027,7 @@
       </c>
       <c r="L172" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M172"/>
     </row>
@@ -49119,7 +49070,7 @@
       </c>
       <c r="L173" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M173"/>
     </row>
@@ -49162,7 +49113,7 @@
       </c>
       <c r="L174" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M174"/>
     </row>
@@ -49205,7 +49156,7 @@
       </c>
       <c r="L175" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M175"/>
     </row>
@@ -49248,7 +49199,7 @@
       </c>
       <c r="L176" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M176"/>
     </row>
@@ -49291,7 +49242,7 @@
       </c>
       <c r="L177" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M177"/>
     </row>
@@ -49334,7 +49285,7 @@
       </c>
       <c r="L178" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M178"/>
     </row>
@@ -49377,7 +49328,7 @@
       </c>
       <c r="L179" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M179"/>
     </row>
@@ -49420,7 +49371,7 @@
       </c>
       <c r="L180" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M180"/>
     </row>
@@ -49463,7 +49414,7 @@
       </c>
       <c r="L181" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M181"/>
     </row>
@@ -49506,7 +49457,7 @@
       </c>
       <c r="L182" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M182"/>
     </row>
@@ -49549,7 +49500,7 @@
       </c>
       <c r="L183" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M183"/>
     </row>
@@ -49592,7 +49543,7 @@
       </c>
       <c r="L184" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M184"/>
     </row>
@@ -49635,7 +49586,7 @@
       </c>
       <c r="L185" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M185"/>
     </row>
@@ -49678,7 +49629,7 @@
       </c>
       <c r="L186" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M186"/>
     </row>
@@ -49721,7 +49672,7 @@
       </c>
       <c r="L187" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M187"/>
     </row>
@@ -49764,7 +49715,7 @@
       </c>
       <c r="L188" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M188"/>
     </row>
@@ -49807,7 +49758,7 @@
       </c>
       <c r="L189" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M189"/>
     </row>
@@ -49850,7 +49801,7 @@
       </c>
       <c r="L190" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M190"/>
     </row>
@@ -49893,7 +49844,7 @@
       </c>
       <c r="L191" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M191"/>
     </row>
@@ -49936,7 +49887,7 @@
       </c>
       <c r="L192" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M192"/>
     </row>
@@ -49979,7 +49930,7 @@
       </c>
       <c r="L193" s="26">
         <f t="shared" ca="1" si="26"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M193"/>
     </row>
@@ -50022,7 +49973,7 @@
       </c>
       <c r="L194" s="26">
         <f t="shared" ref="L194:L201" ca="1" si="30">NOW()</f>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M194"/>
     </row>
@@ -50065,7 +50016,7 @@
       </c>
       <c r="L195" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M195"/>
     </row>
@@ -50108,7 +50059,7 @@
       </c>
       <c r="L196" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M196"/>
     </row>
@@ -50151,7 +50102,7 @@
       </c>
       <c r="L197" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M197"/>
     </row>
@@ -50194,7 +50145,7 @@
       </c>
       <c r="L198" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M198"/>
     </row>
@@ -50237,7 +50188,7 @@
       </c>
       <c r="L199" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M199"/>
     </row>
@@ -50280,7 +50231,7 @@
       </c>
       <c r="L200" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M200"/>
     </row>
@@ -50323,7 +50274,7 @@
       </c>
       <c r="L201" s="26">
         <f t="shared" ca="1" si="30"/>
-        <v>46004.617055555558</v>
+        <v>46007.395068518519</v>
       </c>
       <c r="M201"/>
     </row>
@@ -51132,8 +51083,8 @@
     <mergeCell ref="N17:P17"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:J201">
-    <cfRule type="top10" dxfId="1" priority="2" rank="10"/>
-    <cfRule type="top10" dxfId="0" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="3" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P31">
     <cfRule type="iconSet" priority="1">
@@ -51552,48 +51503,48 @@
       <c r="C3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D3">
-        <v>411290.62000000005</v>
+      <c r="D3" s="39">
+        <v>168475.43000000002</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>370723.25</v>
+      <c r="D4" s="39">
+        <v>227849.36</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
-        <v>330708.08999999985</v>
+      <c r="D5" s="39">
+        <v>168274.52000000002</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
-        <v>369503.06</v>
+      <c r="D6" s="39">
+        <v>212285.78999999998</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>462741.67</v>
+      <c r="D7" s="39">
+        <v>278458.60000000003</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D8">
-        <v>1944966.69</v>
+      <c r="D8" s="39">
+        <v>1055343.7000000002</v>
       </c>
     </row>
   </sheetData>
@@ -51611,7 +51562,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C593EC-CAEB-422C-9B29-BD9A04E68171}">
-  <dimension ref="D2:E8"/>
+  <dimension ref="D2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
@@ -51635,50 +51586,34 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>487565.97</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="39">
+        <v>407748.73999999987</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>402057.01999999996</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="39">
+        <v>356940.18999999989</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>407748.73999999993</v>
+        <v>41</v>
+      </c>
+      <c r="E5" s="39">
+        <v>290654.77</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>356940.19</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>290654.77</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E8">
-        <v>1944966.69</v>
+      <c r="E6" s="39">
+        <v>1055343.6999999997</v>
       </c>
     </row>
   </sheetData>
@@ -51723,128 +51658,128 @@
       <c r="D3" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E3">
-        <v>1453071.93</v>
+      <c r="E3" s="39">
+        <v>868956.78</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E4">
-        <v>180203.86999999997</v>
+      <c r="E4" s="39">
+        <v>77084.97</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E5">
-        <v>198658.33000000002</v>
+      <c r="E5" s="39">
+        <v>144490.81000000003</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D6" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E6">
-        <v>202365.12</v>
+      <c r="E6" s="39">
+        <v>107232.65999999997</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E7">
-        <v>118108.5</v>
+      <c r="E7" s="39">
+        <v>96524.819999999992</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E8">
-        <v>99467.579999999987</v>
+      <c r="E8" s="39">
+        <v>59284.37999999999</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E9">
-        <v>213064.05999999997</v>
+      <c r="E9" s="39">
+        <v>131251.10999999999</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D10" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E10">
-        <v>144567.88999999998</v>
+      <c r="E10" s="39">
+        <v>51502.499999999993</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D11" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E11">
-        <v>163911.10000000003</v>
+      <c r="E11" s="39">
+        <v>112807.54999999999</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E12">
-        <v>132725.48000000001</v>
+      <c r="E12" s="39">
+        <v>88777.98000000001</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E13">
-        <v>491894.76</v>
+      <c r="E13" s="39">
+        <v>186386.92</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D14" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E14">
-        <v>150602.97</v>
+      <c r="E14" s="39">
+        <v>52040.520000000004</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D15" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E15">
-        <v>123216.75</v>
+      <c r="E15" s="39">
+        <v>62672.51</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D16" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E16">
-        <v>196742.63999999998</v>
+      <c r="E16" s="39">
+        <v>60179.01</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E17">
-        <v>21332.400000000001</v>
+      <c r="E17" s="39">
+        <v>11494.880000000001</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E18">
-        <v>1944966.6899999997</v>
+      <c r="E18" s="39">
+        <v>1055343.7</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
@@ -51853,7 +51788,7 @@
       </c>
       <c r="F20" s="21">
         <f>GETPIVOTDATA("Total Purchase",$D$2)</f>
-        <v>1944966.6899999997</v>
+        <v>1055343.7</v>
       </c>
     </row>
   </sheetData>
@@ -51877,7 +51812,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
